--- a/xls/foscarini/result/foscarini_aumentato.xlsx
+++ b/xls/foscarini/result/foscarini_aumentato.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16997" count="16997">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17071" count="17071">
   <x:si>
     <x:t>supplier</x:t>
   </x:si>

--- a/xls/foscarini/result/foscarini_aumentato.xlsx
+++ b/xls/foscarini/result/foscarini_aumentato.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17071" count="17071">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17079" count="17079">
   <x:si>
     <x:t>supplier</x:t>
   </x:si>

--- a/xls/foscarini/result/foscarini_aumentato.xlsx
+++ b/xls/foscarini/result/foscarini_aumentato.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17079" count="17079">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17165" count="17165">
   <x:si>
     <x:t>supplier</x:t>
   </x:si>

--- a/xls/foscarini/result/foscarini_aumentato.xlsx
+++ b/xls/foscarini/result/foscarini_aumentato.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17165" count="17165">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16977" count="16977">
   <x:si>
     <x:t>supplier</x:t>
   </x:si>
@@ -38,9 +38,6 @@
   </x:si>
   <x:si>
     <x:t>ean13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>price</x:t>
   </x:si>
   <x:si>
     <x:t>color</x:t>
@@ -86,6 +83,9 @@
   </x:si>
   <x:si>
     <x:t>pic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>light_schema</x:t>
   </x:si>
   <x:si>
     <x:t>otherColors</x:t>

--- a/xls/foscarini/result/foscarini_aumentato.xlsx
+++ b/xls/foscarini/result/foscarini_aumentato.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16977" count="16977">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17677" count="17677">
   <x:si>
     <x:t>supplier</x:t>
   </x:si>

--- a/xls/foscarini/result/foscarini_aumentato.xlsx
+++ b/xls/foscarini/result/foscarini_aumentato.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17678" count="17678">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17919" count="17919">
   <x:si>
     <x:t>supplier</x:t>
   </x:si>
